--- a/biology/Zoologie/Aparallactus/Aparallactus.xlsx
+++ b/biology/Zoologie/Aparallactus/Aparallactus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aparallactus est un genre de serpents de la famille des Lamprophiidae. 
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique subsaharienne.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des serpents venimeux.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (29 nov. 2011)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (29 nov. 2011) :
 Aparallactus capensis Smith, 1849
 Aparallactus guentheri Boulenger, 1895
 Aparallactus jacksonii (Günther, 1888)
@@ -614,7 +632,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Smith, 1849 : Illustrations of the zoology of South Africa, consisting chiefly of figures and descriptions of the objects of natural history collected during an expedition into the interior of South Africa, in the years 1834, 1835, and 1836; fitted out by "The Cape of Good Hope Association for Exploring Central Africa" : together with a summary of African zoology, and an inquiry into the geographical ranges of species in that quarter of the globe, vol. 3, Appendix.</t>
         </is>
